--- a/BackTest/2020-01-20 BackTest BTC.xlsx
+++ b/BackTest/2020-01-20 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -18667,7 +18667,7 @@
         <v>179.8244397000001</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>209.74010689</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>358.0254558400001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>374.4372930300001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>386.6690675100001</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>408.7532519500001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>417.8642871700001</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>428.4196953700001</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>399.7229036800001</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>403.6121776200001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>399.0465776200001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>396.7730776200001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>407.7626898800001</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>396.5021898800001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>415.3298353300001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>407.2403198500001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>412.3277474800001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>405.3295475200001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>393.1350208300001</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>373.6011994300001</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>358.0832816100001</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>343.9364816100001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>331.9053816100001</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>348.1145816100001</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>339.4936816100001</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>349.2704816100001</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>353.1612825800001</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>362.1581825800001</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>370.5569611800001</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>365.2886611800001</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>361.1983612200001</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>364.2896612200001</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>363.2408612200001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>365.40266122</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>408.88908024</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>425.94181245</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>413.90328285</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>420.09514693</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>416.90609744</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>408.28729746</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>412.96589742</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>404.05339738</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>398.98631835</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>402.35291835</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>396.36911835</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>391.97756</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>391.97756</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>388.03686</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>385.06496</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>381.88580118</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>370.60074478</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>365.09074478</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>348.5813447800001</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>347.23204478</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>350.13914478</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>372.97529847</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>368.9849984700001</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>366.7641984700001</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>374.0743984700001</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>372.1666984400001</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>375.25652718</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>371.57562718</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>368.58042718</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>368.58042718</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>373.11052718</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>377.5496775</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>363.7787060800001</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>355.8289608300001</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>357.3256149000001</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>357.6617149</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>351.0346149000001</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>333.6542149000001</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>326.8188149000001</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>327.52738394</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>328.7501938500001</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>325.5299118900001</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>325.5299118900001</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>330.1801118900001</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>330.0796118900001</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>330.5912118900001</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>329.84381189</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>328.4823118900001</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>328.88051189</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>327.76821189</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>312.46551189</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>305.04781189</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>301.92071189</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>298.87211189</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>292.95332185</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>288.97182185</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>300.21620038</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>291.0413466000001</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>309.7059072100001</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>299.6055527400001</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>302.3342926800001</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>293.3226206000001</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>295.1908206000001</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>295.1908206000001</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>295.7768206000001</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>298.6201206000001</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>298.9908206000001</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>303.0050391100001</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>298.6201391100001</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>298.6201391100001</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>299.3806391300001</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>298.2336390900001</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>298.30503909</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>298.32183909</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>298.32183909</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>298.9630628200001</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>298.8194628200001</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>308.9863628200001</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>309.7301628200001</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>307.7041628200001</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>316.7336628200001</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>309.6727628200001</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>304.6442628200001</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>300.97266282</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>303.8575628200001</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>302.2787628200001</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>294.1030130500001</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>292.3801130500001</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>288.6660130500001</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>285.7289130500001</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>287.9039130500001</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>289.6267130500001</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>286.7918130500001</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>293.9099130500002</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>290.0860242900002</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>290.1950242900002</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>287.8609242900002</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>285.1348242900003</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>289.6827738300003</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>283.6345678300003</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>292.3355547600003</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>288.6988057500002</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>286.2357656900002</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>281.4719656900002</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>276.1032656900002</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>277.4131656900003</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>276.5570656900002</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>273.8328324800002</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>270.2538817600002</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>268.3888919100002</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>265.5753919300002</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>266.8247919300002</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>268.7004919300002</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>272.6097021000002</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>271.4494020900001</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>273.3226636300001</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>273.6307636300002</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>268.6666152000001</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>270.4942152000002</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>271.1077152000001</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>271.0847701500002</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>271.0847701500002</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>269.4858699200001</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>277.0134699200001</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>278.2413699200001</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>278.2413699200001</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>279.2069699200001</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>276.8101855000001</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>277.9208855000001</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>277.4104986200001</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>276.9430986200001</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>276.9430986200001</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>276.2470986200001</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>283.2987986200001</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>282.7451986200001</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>283.52239862</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>283.52239862</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>283.23460891</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>288.11281898</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>293.11191942</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>295.32521963</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>294.6470613600001</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>292.4022613600001</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>292.4415613600001</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>292.0506388000001</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>291.3361388000001</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>291.9712388000002</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>291.6069388000001</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>290.1118388000002</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>288.9175490400002</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>285.3627824800001</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>285.1235490400001</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>286.7678264800001</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>283.7878270700001</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>284.4204165000001</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>285.2360386000001</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>282.9199386000001</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>281.0329607000001</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>282.7250744300001</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>282.2890492000001</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>283.3074492000001</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>274.5011492000001</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>275.8459737800001</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>277.55917378</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>278.30237378</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>287.73747378</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>288.95527378</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>288.8242737800001</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>287.95767469</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>292.544845</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>292.263845</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>296.432445</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>296.80314163</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>297.20914971</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>293.66064971</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>285.90984971</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>275.49247167</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>263.3990716700001</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>260.73747167</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>253.25337167</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>251.50877167</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>249.24147167</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>253.39437167</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>249.48317167</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>242.01667167</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>237.56386661</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>215.46196661</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>223.51416661</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>217.57246661</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>209.55146661</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>210.28996661</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>214.07195773</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>209.22595773</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>194.34575773</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>195.55906219</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>192.81661371</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>192.81661371</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>192.27891371</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>192.89071371</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>193.63281371</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>190.81111371</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>192.06131371</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>192.67191371</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>194.70701371</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>194.70701371</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>195.63031371</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>201.9473064</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>197.44864294</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>200.27974595</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>201.92171909</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>202.47820354</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>203.8918006</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>213.5240726</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>220.5095007</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>200.2160116</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>192.8520116</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>194.7762927</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>192.98120232</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>192.98120232</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>192.16320232</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>193.41290117</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>196.54137319</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>196.11675949</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>198.18882076</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>197.08705738</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>196.84046313</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>197.16506888</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>195.32953067</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>194.18453067</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>193.15443689</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>193.15443689</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>193.29163689</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>193.29163689</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>194.01533689</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>193.97274347</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>193.97274347</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>194.35054347</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>194.52143036</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>199.78635551</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>200.43094335</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>200.43094335</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>201.82584152</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>201.82584152</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>203.16104152</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>206.53113142</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>207.10843142</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>207.10843142</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>217.91583142</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>217.8580314200001</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>217.8580314200001</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>218.3404314200001</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>215.5482640000001</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>216.5118640000001</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>216.8666965800001</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>217.1105946400001</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>216.3036946400001</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>213.88809464</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>214.1390946400001</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>210.7608946400001</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>210.7608946400001</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>211.1434946400001</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>209.98559461</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>209.98559461</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>210.33621518</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>210.84771753</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>208.71421682</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>208.51201844</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>208.51201844</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>208.7203184400001</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>209.7745055600001</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>209.5727055600001</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>208.2164055600001</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>208.7617055600001</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>207.33180556</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>203.21960556</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>204.1225919700001</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>204.1225919700001</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>198.72839197</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>191.7474770300001</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>192.6338565000001</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>191.5899565000001</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>191.8173565</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>191.04566581</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>188.87896581</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>188.87896581</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>185.27184072</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>185.32134072</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>187.41715322</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>187.18057673</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>188.15146556</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>188.02266556</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>188.02266556</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>188.81036556</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>189.01513342</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>188.75183342</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>188.11563342</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>189.38061329</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>189.85201329</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>189.85201329</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>189.56691329</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>188.91201329</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>185.65501329</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>186.64391329</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>183.77638987</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>183.77638987</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>183.46868987</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>186.65658987</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>188.24658987</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>187.61298987</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>185.93908987</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>185.93908987</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>186.15658987</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>187.09858987</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>188.18478987</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>187.40688987</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>187.45868987</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>188.01926685</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +34936,7 @@
         <v>194.02002265</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +34969,7 @@
         <v>201.04412879</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>201.04412879</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>198.61382879</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>198.61382879</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35101,7 @@
         <v>199.0750989</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35134,7 @@
         <v>206.97452879</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35167,7 @@
         <v>206.60353772</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>206.60353772</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>207.72013772</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>204.43353772</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>202.08942388</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>202.30272388</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -35365,7 +35365,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -35398,7 +35398,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -35431,7 +35431,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -35464,7 +35464,7 @@
         <v>202.94654768</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>202.79964768</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>202.79964768</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>202.96064768</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>201.18894329</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -35629,7 +35629,7 @@
         <v>206.31779491</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -35662,7 +35662,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -35695,7 +35695,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -35728,7 +35728,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -35761,7 +35761,7 @@
         <v>204.84170611</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -35794,7 +35794,7 @@
         <v>204.40820611</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -35827,7 +35827,7 @@
         <v>201.69780611</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -35860,7 +35860,7 @@
         <v>202.0911061100001</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -35893,7 +35893,7 @@
         <v>202.0364061100001</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -35926,7 +35926,7 @@
         <v>202.62420611</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -35959,7 +35959,7 @@
         <v>201.30470611</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -35992,7 +35992,7 @@
         <v>201.30470611</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36025,7 +36025,7 @@
         <v>219.27870611</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36058,7 +36058,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36091,7 +36091,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
         <v>216.57510611</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36190,7 @@
         <v>220.02376843</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36223,7 @@
         <v>216.29746843</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>225.13766843</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36289,7 @@
         <v>225.0446684300001</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36322,7 +36322,7 @@
         <v>225.1452441500001</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -36355,7 +36355,7 @@
         <v>224.4100441500001</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
         <v>226.45164415</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -36421,7 +36421,7 @@
         <v>225.9340073400001</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>225.94680734</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>226.92160734</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>226.92160734</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>226.66870734</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>226.66870734</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>226.9091322</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>228.98719199</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>230.02989199</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>231.21289427</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>227.45438346</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>228.96258346</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>228.7545023</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37015,7 +37015,7 @@
         <v>228.661173</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
         <v>228.661173</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37081,7 +37081,7 @@
         <v>229.075373</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>230.40416344</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>228.85296344</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>228.98086344</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>232.647973</v>
       </c>
       <c r="H1116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>230.490773</v>
       </c>
       <c r="H1117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>230.490773</v>
       </c>
       <c r="H1118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>230.78248264</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>225.817037</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>224.18776604</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -37411,7 +37411,7 @@
         <v>230.17341444</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -37444,7 +37444,7 @@
         <v>228.92081953</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37477,7 +37477,7 @@
         <v>230.34876528</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37510,7 +37510,7 @@
         <v>230.21377478</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
         <v>228.60287478</v>
       </c>
       <c r="H1126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37576,7 +37576,7 @@
         <v>228.60287478</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37609,7 +37609,7 @@
         <v>228.44127478</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37642,7 +37642,7 @@
         <v>223.71997478</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37675,7 +37675,7 @@
         <v>222.90307478</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37708,7 +37708,7 @@
         <v>222.58627478</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -37741,7 +37741,7 @@
         <v>224.76336545</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -37774,7 +37774,7 @@
         <v>223.58096545</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -37807,7 +37807,7 @@
         <v>223.58096545</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -37840,7 +37840,7 @@
         <v>223.01636545</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -37873,7 +37873,7 @@
         <v>223.68615775</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -37906,7 +37906,7 @@
         <v>223.75887243</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -37939,7 +37939,7 @@
         <v>222.84741712</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -37972,7 +37972,7 @@
         <v>195.4737418</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38005,7 +38005,7 @@
         <v>25.47384180000003</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38038,7 +38038,7 @@
         <v>-140.44243144</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38071,7 +38071,7 @@
         <v>-239.99631927</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38104,7 +38104,7 @@
         <v>-162.11471281</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38137,7 +38137,7 @@
         <v>-215.18103223</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38170,7 +38170,7 @@
         <v>-261.70541542</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40942,11 +40942,17 @@
         <v>-472.3416450300003</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>9770000</v>
+      </c>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -40975,11 +40981,17 @@
         <v>-479.8063650300003</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9776000</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41008,11 +41020,17 @@
         <v>-483.5526763100003</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9775000</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41041,11 +41059,17 @@
         <v>-489.3335763100002</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9771000</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41074,11 +41098,17 @@
         <v>-501.4969969700002</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>9767000</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41107,11 +41137,17 @@
         <v>-508.4617727200002</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>9760000</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41140,11 +41176,17 @@
         <v>-520.0050727200003</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>9754000</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41173,7 +41215,7 @@
         <v>-513.6313727200003</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1236" t="n">
         <v>9752000</v>
@@ -41181,7 +41223,7 @@
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1236" t="n">
@@ -41212,7 +41254,7 @@
         <v>-513.6313727200003</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1237" t="n">
         <v>9760000</v>
@@ -41251,7 +41293,7 @@
         <v>-506.2399216000003</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1238" t="n">
         <v>9760000</v>
@@ -41290,7 +41332,7 @@
         <v>-499.8219216000003</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1239" t="n">
         <v>9773000</v>
@@ -41329,7 +41371,7 @@
         <v>-492.7320631600003</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>9775000</v>
@@ -41368,9 +41410,11 @@
         <v>-487.0821064300003</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9778000</v>
+      </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41405,9 +41449,11 @@
         <v>-482.8152224900003</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>9801000</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41442,9 +41488,11 @@
         <v>-476.6701902800003</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>9816000</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41479,9 +41527,11 @@
         <v>-464.2869608500002</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>9826000</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41516,9 +41566,11 @@
         <v>-469.3213338900002</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>9835000</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41553,9 +41605,11 @@
         <v>-464.7345410900002</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>9831000</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41590,9 +41644,11 @@
         <v>-471.5882191300002</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>9842000</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41627,9 +41683,11 @@
         <v>-469.9931079200002</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>9834000</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41664,9 +41722,11 @@
         <v>-464.7580819600002</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>9842000</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -41701,9 +41761,11 @@
         <v>-458.3683536200002</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>9852000</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42737,9 +42799,11 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>9783000</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -42774,9 +42838,11 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>9790000</v>
+      </c>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -42811,9 +42877,11 @@
         <v>-506.3023113400004</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>9790000</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -42848,9 +42916,11 @@
         <v>-505.4395298600004</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>9788000</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -42885,9 +42955,11 @@
         <v>-510.1523298600004</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>9797000</v>
+      </c>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -42922,9 +42994,11 @@
         <v>-512.2315083100004</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>9796000</v>
+      </c>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -42959,9 +43033,11 @@
         <v>-514.4815598400004</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>9795000</v>
+      </c>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
@@ -42996,9 +43072,11 @@
         <v>-520.7862598400004</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>9788000</v>
+      </c>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43033,9 +43111,11 @@
         <v>-514.6674598400004</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>9780000</v>
+      </c>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43070,9 +43150,11 @@
         <v>-518.5014598400004</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>9783000</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43107,9 +43189,11 @@
         <v>-523.7944659000004</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>9773000</v>
+      </c>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43144,7 +43228,7 @@
         <v>-533.8254023600005</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1289" t="n">
         <v>9768000</v>
@@ -43183,7 +43267,7 @@
         <v>-520.7497659000004</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1290" t="n">
         <v>9761000</v>
@@ -43222,7 +43306,7 @@
         <v>-516.5854487200004</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1291" t="n">
         <v>9764000</v>
@@ -43261,7 +43345,7 @@
         <v>-517.4420331700004</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1292" t="n">
         <v>9773000</v>
@@ -43300,7 +43384,7 @@
         <v>-516.9286331700004</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1293" t="n">
         <v>9771000</v>
@@ -43339,7 +43423,7 @@
         <v>-518.6522220100004</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1294" t="n">
         <v>9780000</v>
@@ -43378,7 +43462,7 @@
         <v>-521.7410220100004</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1295" t="n">
         <v>9778000</v>
@@ -43417,7 +43501,7 @@
         <v>-517.9540118300004</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1296" t="n">
         <v>9770000</v>
@@ -43456,7 +43540,7 @@
         <v>-511.0640877900004</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1297" t="n">
         <v>9781000</v>
@@ -43495,7 +43579,7 @@
         <v>-509.0745877600004</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1298" t="n">
         <v>9788000</v>
@@ -43534,7 +43618,7 @@
         <v>-517.7265877600004</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1299" t="n">
         <v>9799000</v>
@@ -43573,7 +43657,7 @@
         <v>-514.9257878100003</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1300" t="n">
         <v>9798000</v>
@@ -43612,7 +43696,7 @@
         <v>-502.9418878100003</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1301" t="n">
         <v>9800000</v>
@@ -43651,7 +43735,7 @@
         <v>-491.9610469900003</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1302" t="n">
         <v>9801000</v>
@@ -43690,7 +43774,7 @@
         <v>-490.8537877600003</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1303" t="n">
         <v>9802000</v>
@@ -43729,7 +43813,7 @@
         <v>-488.1754878000003</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1304" t="n">
         <v>9805000</v>
@@ -43768,9 +43852,11 @@
         <v>-486.0131296100002</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9809000</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43805,9 +43891,11 @@
         <v>-494.1404986400003</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43842,9 +43930,11 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>9805000</v>
+      </c>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -43879,9 +43969,11 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -43916,9 +44008,11 @@
         <v>-485.1717592900003</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -43953,9 +44047,11 @@
         <v>-485.8570651400003</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>9814000</v>
+      </c>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -43990,9 +44086,11 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -44027,9 +44125,11 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>9809000</v>
+      </c>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44064,9 +44164,11 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>9809000</v>
+      </c>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44101,9 +44203,11 @@
         <v>-485.1809985700003</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>9809000</v>
+      </c>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44138,9 +44242,11 @@
         <v>-487.0120985700003</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>9815000</v>
+      </c>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44175,9 +44281,11 @@
         <v>-482.3232461900003</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>9806000</v>
+      </c>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44212,9 +44320,11 @@
         <v>-473.0065230200003</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>9814000</v>
+      </c>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44249,9 +44359,11 @@
         <v>-472.5166183200003</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>9815000</v>
+      </c>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44286,9 +44398,11 @@
         <v>-475.4504792700003</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>9820000</v>
+      </c>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44323,9 +44437,11 @@
         <v>-481.4545719100003</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>9809000</v>
+      </c>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44360,9 +44476,11 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>9804000</v>
+      </c>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -44397,9 +44515,11 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>9798000</v>
+      </c>
       <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
@@ -44434,9 +44554,11 @@
         <v>-490.8394719100003</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>9798000</v>
+      </c>
       <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
@@ -44471,9 +44593,11 @@
         <v>-488.6077719100003</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>9799000</v>
+      </c>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -44508,9 +44632,11 @@
         <v>-488.0164969500003</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>9800000</v>
+      </c>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44545,9 +44671,11 @@
         <v>-491.5624969500003</v>
       </c>
       <c r="H1326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
@@ -44582,9 +44710,11 @@
         <v>-490.8774171400003</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>9799000</v>
+      </c>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -44619,9 +44749,11 @@
         <v>-489.9999262600003</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>9801000</v>
+      </c>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -44656,9 +44788,11 @@
         <v>-492.5309344600003</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>9802000</v>
+      </c>
       <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
@@ -44693,9 +44827,11 @@
         <v>-492.1902344600002</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>9801000</v>
+      </c>
       <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
@@ -44730,9 +44866,11 @@
         <v>-491.4305344600002</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>9803000</v>
+      </c>
       <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
@@ -44767,9 +44905,11 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>9808000</v>
+      </c>
       <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
@@ -44804,9 +44944,11 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
@@ -44841,9 +44983,11 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
@@ -44878,9 +45022,11 @@
         <v>-490.8740344600002</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
@@ -44915,9 +45061,11 @@
         <v>-488.4648295500002</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>9818000</v>
+      </c>
       <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
@@ -44952,9 +45100,11 @@
         <v>-487.4849250600002</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9820000</v>
+      </c>
       <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
@@ -44989,9 +45139,11 @@
         <v>-488.4597250600002</v>
       </c>
       <c r="H1338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>9823000</v>
+      </c>
       <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
@@ -45026,9 +45178,11 @@
         <v>-486.3024250600002</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>9811000</v>
+      </c>
       <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
@@ -45063,9 +45217,11 @@
         <v>-486.6520251100002</v>
       </c>
       <c r="H1340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>9821000</v>
+      </c>
       <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
@@ -45100,9 +45256,11 @@
         <v>-486.4075268500002</v>
       </c>
       <c r="H1341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9810000</v>
+      </c>
       <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
@@ -45137,9 +45295,11 @@
         <v>-487.8404064000002</v>
       </c>
       <c r="H1342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9820000</v>
+      </c>
       <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
@@ -45174,9 +45334,11 @@
         <v>-487.3954064000002</v>
       </c>
       <c r="H1343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9818000</v>
+      </c>
       <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
@@ -45211,9 +45373,11 @@
         <v>-485.0918018200002</v>
       </c>
       <c r="H1344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9820000</v>
+      </c>
       <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
@@ -45248,9 +45412,11 @@
         <v>-486.8089841400002</v>
       </c>
       <c r="H1345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9821000</v>
+      </c>
       <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
@@ -45285,9 +45451,11 @@
         <v>-486.1941841400002</v>
       </c>
       <c r="H1346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>9816000</v>
+      </c>
       <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
@@ -45322,9 +45490,11 @@
         <v>-488.9447841400002</v>
       </c>
       <c r="H1347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9825000</v>
+      </c>
       <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
@@ -45337,6 +45507,6 @@
       <c r="M1347" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BTC.xlsx
+++ b/BackTest/2020-01-20 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-107.89231377</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-102.50070486</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-104.98490486</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-104.08042181</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-102.36662181</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-95.41072549999996</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-81.90988414999995</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-76.88764570999996</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-82.26377444999996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-81.35293513999996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-83.34813129999996</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-81.82165315999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78.49515315999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-77.83185315999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-77.14376676999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-82.85838037999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-103.75517643</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-114.26117643</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-117.30267643</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-122.03937643</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-119.31610114</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-125.74350114</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-123.85040114</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-125.54350114</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-129.04270114</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-125.79165337</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-114.91265337</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-111.52325337</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-116.29975337</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-117.86315337</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-120.74916786</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-104.42226737</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-101.06046737</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-108.55836737</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-108.18816737</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-100.92936737</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-96.02116736999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-97.39556736999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-96.46127079999997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-97.02257966999997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-97.62977966999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-104.04267967</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-83.47317966999996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-84.56657966999997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-81.47107966999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-89.52367966999996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-90.13357966999996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-86.17407966999995</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-88.58927966999995</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-74.46787697999996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-72.03246798999996</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-73.33476798999996</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-66.41626798999995</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-66.37246798999995</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64.52295630999994</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-61.20146798999994</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-61.75646798999994</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-62.05936798999994</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-62.27256798999994</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-59.99418979999994</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-61.02617528999994</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-62.30447528999994</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-61.82337528999994</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64.57897528999995</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-60.01050552999995</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-59.17900552999995</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-58.94780552999995</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-59.02980552999995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-59.74970552999995</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-58.12910552999995</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-58.49100552999995</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-58.56473403999994</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-60.33173719999994</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-60.60053719999994</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58.82533719999994</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-58.72743719999994</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-59.04383719999994</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-55.30053719999994</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-54.96103719999994</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-55.74303719999995</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-57.52923719999995</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-58.04763719999995</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-55.04123719999995</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-53.89423719999995</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-58.02073719999995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-59.42953719999995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-58.42093719999995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-49.22823719999995</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-49.28423719999994</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-49.66953719999994</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-49.25213719999994</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-48.66033719999994</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-47.34673719999994</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-48.37503719999994</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-47.90443719999995</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-47.76983719999995</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-43.73323719999995</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-44.09243719999995</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-44.15123719999995</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-44.24893719999995</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-44.47383719999995</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-44.39563719999995</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-44.60963719999994</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-44.24104017999994</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-44.59544017999994</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-45.47774017999994</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-43.53954017999994</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-43.61924017999993</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-43.67424017999993</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-43.33874017999993</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-43.16274017999993</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-41.27883719999993</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-40.21913719999993</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-41.60493719999993</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-37.69503719999993</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-37.86273719999993</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-38.23833719999993</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-38.45055085999993</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-38.39145085999993</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-38.28675085999993</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-35.63455085999993</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-39.71145085999993</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-40.24675085999993</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-40.29205085999993</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-39.83095085999992</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-39.88585085999993</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-37.51025085999993</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-37.44705085999993</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-38.14985085999993</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-36.49425085999993</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-36.51215085999993</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-36.47015085999993</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-36.51865085999992</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-36.48885085999992</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-36.99715085999992</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-36.98405085999992</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-36.99565085999992</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-38.68285085999992</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-38.05684748999992</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-37.69664748999992</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-37.71084748999992</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-37.69224747999992</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-38.32834401999992</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-38.50564401999993</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-39.00494401999993</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-39.03814401999993</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-39.08134401999992</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-39.19344401999992</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-39.14454401999992</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-39.42644401999992</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-38.81754401999992</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-39.18430192999992</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-35.94980192999992</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-37.71064246999993</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-37.99944246999993</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-43.88003915999992</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-44.83413915999992</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-45.51943915999992</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-44.22463915999992</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-44.44233915999992</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-44.93283915999992</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-41.96573915999993</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-42.09373915999993</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-42.11533915999993</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-42.43940827999993</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-42.66810827999993</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-42.64290827999994</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-42.56070827999994</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-42.48530827999993</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-41.42833119999993</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-41.17353119999993</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-42.08513119999993</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-41.28763119999993</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-42.34583119999993</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-41.96913119999993</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-42.77803119999993</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-42.58433119999993</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-42.23663119999993</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-41.88006834999992</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-41.90942339999992</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-42.84952339999992</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-43.18682339999992</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-42.90692339999993</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-42.92952339999992</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-42.20088624999993</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-42.15298624999993</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-42.32028624999992</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-39.41014571999992</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-38.93744571999992</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-37.89694567999992</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-40.70964567999992</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-40.52974567999993</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-39.95354564999992</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-42.61574564999992</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-42.40334564999992</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-42.25184564999992</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-43.88584564999992</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-43.41284564999992</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-44.04284564999993</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-43.89564564999993</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-41.25234564999993</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-41.95354564999993</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-41.19144564999993</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-41.13994564999994</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-41.16294564999994</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-41.20674564999994</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-40.35024564999994</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-39.17034561999994</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-39.46444561999994</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-37.46394564999994</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-38.18984564999995</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-36.15454564999995</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-36.51954567999994</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-37.13354567999994</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-36.67764567999994</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-36.68364567999994</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-36.19334567999994</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-38.48104567999994</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-37.35424567999994</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-36.33674567999994</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-36.74524567999994</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-37.62093594999994</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-34.72283594999994</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-34.97033594999994</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-35.49043594999994</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-35.41723594999994</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-35.52143594999994</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-35.57183594999994</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-35.77623887999994</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-35.63003887999994</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-38.46833887999994</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-41.49921938999994</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-41.41691938999994</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-41.50531938999994</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-40.70111938999994</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-39.19301938999994</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-40.46258620999994</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-40.77268620999994</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-42.36418620999994</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-46.50618621999994</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-48.78938621999994</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-49.03098621999994</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-49.91318621999994</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-48.71348719999994</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-47.57598621999994</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-51.47675269999994</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-50.47705269999994</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-44.06351917999994</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-43.65521917999995</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-43.30589161999995</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-43.51509161999995</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-40.25428042999995</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-40.63148042999995</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-39.41678042999995</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-46.90737562999995</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-48.02084533999996</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-47.33177367999996</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-46.46467622999995</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-47.42757142999995</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-40.03207515999995</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-46.69245823999995</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-45.62815823999995</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-49.03275823999995</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-50.88095823999995</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-52.94199306999995</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-54.20485823999994</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-48.52112340999994</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-49.69262341999995</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-52.25572341999995</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-53.43782341999994</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-61.74781401999994</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-60.91590844999995</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-61.63514391999995</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-63.58685157999994</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-60.03145157999995</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-61.22695157999995</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-59.50345157999995</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-58.37205157999995</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-58.16505157999995</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-63.10275157999995</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-65.41165157999994</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-75.50525157999994</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-76.28235157999994</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-69.09705157999994</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-73.84945157999994</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-69.83905157999993</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-64.16236947999994</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-63.69706947999994</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-62.72766947999994</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-64.35566531999994</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-64.00527076999994</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-64.76047076999994</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-64.58207076999994</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-61.14347076999994</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-60.73477076999994</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-53.48569032999994</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-37.67379032999994</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-30.03749032999994</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-2.949067819999939</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-12.03434346999994</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-5.408321499999939</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-7.004721499999939</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-11.83232149999994</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-14.57342149999994</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-16.51732149999994</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-14.21541066999994</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-15.00033036999994</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-16.33617962999994</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-13.93627962999994</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-13.02454858999994</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-12.30514858999994</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-9.236248589999935</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-11.89444858999994</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-17.18451221999993</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-20.20591221999993</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-21.35951221999994</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-20.41931221999993</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-22.85731221999993</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-22.39591221999993</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-18.28891221999993</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-24.42981222999993</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-20.57141222999993</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>8.602824130000066</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>95.15643733000007</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>115.2581373300001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>89.57366605000007</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>77.27018687000007</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>90.96578687000007</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>99.47698686000007</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>138.5387306000001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>153.1266485200001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>218.2809954100001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>197.9522397000001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>207.6430397000001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>195.0444397000001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>374.4372930300001</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>386.6690675100001</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>408.7532519500001</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>417.8642871700001</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>428.4196953700001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>399.7229036800001</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>403.6121776200001</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>399.0465776200001</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>396.7730776200001</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>407.7626898800001</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>396.5021898800001</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>415.3298353300001</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>407.2403198500001</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>412.3277474800001</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>405.3295475200001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>393.1350208300001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>373.6011994300001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>358.0832816100001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>343.9364816100001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>331.9053816100001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>348.1145816100001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>339.4936816100001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>349.2704816100001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>353.1612825800001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>362.1581825800001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>370.5569611800001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>365.2886611800001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>361.1983612200001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>364.2896612200001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>363.2408612200001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>404.05339738</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>398.98631835</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>402.35291835</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>396.36911835</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>391.97756</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>391.97756</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>388.03686</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>385.06496</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>381.88580118</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>370.60074478</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>365.09074478</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>348.5813447800001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>347.23204478</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>309.7059072100001</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>299.6055527400001</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>302.3342926800001</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>293.3226206000001</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>295.1908206000001</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>295.1908206000001</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>295.7768206000001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>298.6201206000001</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>298.9908206000001</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>303.0050391100001</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>298.6201391100001</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>298.6201391100001</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>299.3806391300001</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>298.2336390900001</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>298.30503909</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>298.32183909</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>298.32183909</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>298.9630628200001</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>298.8194628200001</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>308.9863628200001</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>309.7301628200001</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>307.7041628200001</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>316.7336628200001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>309.6727628200001</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>304.6442628200001</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>300.97266282</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>303.8575628200001</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>302.2787628200001</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>294.1030130500001</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>292.3801130500001</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>288.6660130500001</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>285.7289130500001</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>287.9039130500001</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>289.6267130500001</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>286.7918130500001</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>293.9099130500002</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>290.0860242900002</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>290.1950242900002</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>287.8609242900002</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>285.1348242900003</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>289.6827738300003</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>283.6345678300003</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>292.3355547600003</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>288.6988057500002</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>286.2357656900002</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>281.4719656900002</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>276.1032656900002</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>277.4131656900003</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>276.5570656900002</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>273.8328324800002</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>270.2538817600002</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>268.3888919100002</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>265.5753919300002</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>266.8247919300002</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>268.7004919300002</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>272.6097021000002</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>271.4494020900001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>273.3226636300001</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>273.6307636300002</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>268.6666152000001</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>270.4942152000002</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>271.1077152000001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>269.4587282600002</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>271.0847701500002</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>271.0847701500002</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>269.4858699200001</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>277.0134699200001</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>278.2413699200001</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>278.2413699200001</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>279.2069699200001</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>276.8101855000001</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>277.9208855000001</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>277.4104986200001</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>276.9430986200001</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>276.9430986200001</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>276.2470986200001</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>283.2987986200001</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>282.7451986200001</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>283.52239862</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>283.52239862</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>283.23460891</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>286.06310891</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>288.11281898</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>296.1645192</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>293.11191942</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>295.32521963</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>294.6470613600001</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>292.4022613600001</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>292.4415613600001</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>292.0506388000001</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>291.3361388000001</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>291.9712388000002</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>291.6069388000001</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>290.1118388000002</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>288.9175490400002</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>285.3627824800001</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>285.1235490400001</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>286.7678264800001</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>283.7878270700001</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>284.4204165000001</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>285.2360386000001</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>282.9199386000001</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>281.0329607000001</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>282.7250744300001</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>282.2890492000001</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>283.3074492000001</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>274.5011492000001</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>275.8459737800001</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>277.55917378</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>278.30237378</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>287.73747378</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>288.95527378</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>288.8242737800001</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>287.95767469</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>292.544845</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>292.263845</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>296.432445</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>296.80314163</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>297.20914971</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>293.66064971</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>285.90984971</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>275.49247167</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>263.3990716700001</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>260.73747167</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>253.25337167</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>251.50877167</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>249.24147167</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>253.39437167</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>249.48317167</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>242.01667167</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>237.56386661</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>215.46196661</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>223.51416661</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>217.57246661</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>209.55146661</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>210.28996661</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>214.07195773</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>209.22595773</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>206.68535773</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>194.34575773</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>195.55906219</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>192.81661371</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>192.81661371</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>192.27891371</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>192.89071371</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>193.63281371</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>190.81111371</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>192.06131371</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>192.67191371</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>194.70701371</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>194.70701371</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>195.63031371</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>201.9473064</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>197.44864294</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>200.27974595</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>201.92171909</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>202.47820354</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>203.8918006</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>213.5240726</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>220.5095007</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>200.2160116</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>195.7885116</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>192.8520116</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>192.19731161</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>194.7762927</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>192.98120232</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>192.98120232</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>192.16320232</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>193.41290117</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>196.54137319</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>196.11675949</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>199.23292076</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>198.18882076</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>197.08705738</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>196.84046313</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>197.16506888</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>195.32953067</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>194.18453067</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>193.15443689</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>193.15443689</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>193.29163689</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>193.29163689</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>194.01533689</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>193.97274347</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>193.97274347</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>194.35054347</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>194.52143036</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>199.78635551</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>200.43094335</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>200.43094335</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>201.82584152</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>201.82584152</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>203.16104152</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>206.53113142</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>207.10843142</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>207.10843142</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>217.91583142</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>217.8580314200001</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>217.8580314200001</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>218.3404314200001</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>215.5482640000001</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>216.5118640000001</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>216.8666965800001</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>216.4757291600001</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>217.1105946400001</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>216.3036946400001</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>213.88809464</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>214.1390946400001</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>210.7608946400001</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>210.7608946400001</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>211.1434946400001</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>209.98559461</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>209.98559461</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>210.33621518</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>210.84771753</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>208.71421682</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>208.51201844</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>208.51201844</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>208.7203184400001</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>209.7745055600001</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>209.5727055600001</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>208.2164055600001</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>208.7617055600001</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>207.33180556</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>203.21960556</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>204.1225919700001</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>204.1225919700001</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>198.72839197</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>191.7474770300001</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>192.6338565000001</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>191.5899565000001</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>191.8173565</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>191.04566581</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>188.87896581</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>188.87896581</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>185.27184072</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>185.32134072</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>187.41715322</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>187.18057673</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>188.15146556</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>188.02266556</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>188.02266556</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>188.81036556</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>189.01513342</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>188.75183342</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>188.11563342</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>189.38061329</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>189.85201329</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>189.85201329</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>189.56691329</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>188.91201329</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>185.65501329</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>186.64391329</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>185.66208987</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>183.77638987</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>183.77638987</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>183.46868987</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>186.65658987</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>188.24658987</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>187.61298987</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>185.93908987</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>185.93908987</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>186.15658987</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>187.09858987</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>188.18478987</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>187.40688987</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>187.45868987</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>188.01926685</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +34936,7 @@
         <v>194.02002265</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +34969,7 @@
         <v>201.04412879</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>201.04412879</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>198.61382879</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>198.61382879</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35101,7 @@
         <v>199.0750989</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35134,7 @@
         <v>206.97452879</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35167,7 @@
         <v>206.60353772</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>206.60353772</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>207.72013772</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>204.43353772</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>202.08942388</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>202.30272388</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -35365,7 +35365,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -35398,7 +35398,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -35431,7 +35431,7 @@
         <v>201.21032388</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -35464,7 +35464,7 @@
         <v>202.94654768</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>202.79964768</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>202.79964768</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>202.96064768</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>201.18894329</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -35629,7 +35629,7 @@
         <v>206.31779491</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -35662,7 +35662,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -35695,7 +35695,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -35728,7 +35728,7 @@
         <v>204.7146025</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -35761,7 +35761,7 @@
         <v>204.84170611</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -35794,7 +35794,7 @@
         <v>204.40820611</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -35827,7 +35827,7 @@
         <v>201.69780611</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -35860,7 +35860,7 @@
         <v>202.0911061100001</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -35893,7 +35893,7 @@
         <v>202.0364061100001</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -35926,7 +35926,7 @@
         <v>202.62420611</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -35959,7 +35959,7 @@
         <v>201.30470611</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -35992,7 +35992,7 @@
         <v>201.30470611</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36025,7 +36025,7 @@
         <v>219.27870611</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36058,7 +36058,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36091,7 +36091,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
         <v>216.71620611</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
         <v>216.57510611</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36190,7 @@
         <v>220.02376843</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36223,7 @@
         <v>216.29746843</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>225.13766843</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36289,7 @@
         <v>225.0446684300001</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36322,7 +36322,7 @@
         <v>225.1452441500001</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -36355,7 +36355,7 @@
         <v>224.4100441500001</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -36388,7 +36388,7 @@
         <v>226.45164415</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -36421,7 +36421,7 @@
         <v>225.9340073400001</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -36454,7 +36454,7 @@
         <v>225.94680734</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>226.92160734</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36520,7 +36520,7 @@
         <v>226.92160734</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>226.66870734</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>226.66870734</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36619,7 +36619,7 @@
         <v>226.9091322</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>228.98719199</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>230.02989199</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>230.26739199</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>231.21289427</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36916,7 +36916,7 @@
         <v>227.45438346</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>228.96258346</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>228.7545023</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37015,7 +37015,7 @@
         <v>228.661173</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
         <v>228.661173</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37081,7 +37081,7 @@
         <v>229.075373</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>230.40416344</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>228.85296344</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>228.98086344</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -37213,7 +37213,7 @@
         <v>232.647973</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -37246,7 +37246,7 @@
         <v>230.490773</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
         <v>230.490773</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -37312,7 +37312,7 @@
         <v>230.78248264</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -37345,7 +37345,7 @@
         <v>225.817037</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -37378,7 +37378,7 @@
         <v>224.18776604</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -37411,7 +37411,7 @@
         <v>230.17341444</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -37444,7 +37444,7 @@
         <v>228.92081953</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37477,7 +37477,7 @@
         <v>230.34876528</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37510,7 +37510,7 @@
         <v>230.21377478</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
         <v>228.60287478</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37576,7 +37576,7 @@
         <v>228.60287478</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37609,7 +37609,7 @@
         <v>228.44127478</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37642,7 +37642,7 @@
         <v>223.71997478</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37675,7 +37675,7 @@
         <v>222.90307478</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37708,7 +37708,7 @@
         <v>222.58627478</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -37741,7 +37741,7 @@
         <v>224.76336545</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -37774,7 +37774,7 @@
         <v>223.58096545</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -37807,7 +37807,7 @@
         <v>223.58096545</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -37840,7 +37840,7 @@
         <v>223.01636545</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -37873,7 +37873,7 @@
         <v>223.68615775</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -37906,7 +37906,7 @@
         <v>223.75887243</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -37939,7 +37939,7 @@
         <v>222.84741712</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -37972,7 +37972,7 @@
         <v>195.4737418</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38005,7 +38005,7 @@
         <v>25.47384180000003</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38038,7 +38038,7 @@
         <v>-140.44243144</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38071,7 +38071,7 @@
         <v>-239.99631927</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38104,7 +38104,7 @@
         <v>-162.11471281</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38137,7 +38137,7 @@
         <v>-215.18103223</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38170,7 +38170,7 @@
         <v>-261.70541542</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40942,329 +40942,281 @@
         <v>-472.3416450300003</v>
       </c>
       <c r="H1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>9770000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
+      <c r="K1229" t="inlineStr"/>
+      <c r="L1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>9776000</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>9775000</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>9786000</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>9775000</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>7.46472</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>-479.8063650300003</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
+      <c r="L1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>9775000</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>9771000</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>9783000</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>9771000</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.74631128</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>-483.5526763100003</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
+      <c r="L1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>9771000</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>9767000</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>9775000</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>9767000</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.7809</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>-489.3335763100002</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
+      <c r="L1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>9767000</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>9769000</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>9747000</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>12.16342066</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>-501.4969969700002</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>9754000</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>9761000</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>9747000</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>6.96477575</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>-508.4617727200002</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
+      <c r="L1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>9755000</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>9752000</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>9749000</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>11.5433</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>-520.0050727200003</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
+      <c r="L1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>9751000</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>9749000</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>6.3737</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>-513.6313727200003</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
+      <c r="L1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>9769000</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>9751000</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>25.16362425</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>-513.6313727200003</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" s="1" t="n">
-        <v>1228</v>
-      </c>
-      <c r="B1230" t="n">
-        <v>9776000</v>
-      </c>
-      <c r="C1230" t="n">
-        <v>9775000</v>
-      </c>
-      <c r="D1230" t="n">
-        <v>9786000</v>
-      </c>
-      <c r="E1230" t="n">
-        <v>9775000</v>
-      </c>
-      <c r="F1230" t="n">
-        <v>7.46472</v>
-      </c>
-      <c r="G1230" t="n">
-        <v>-479.8063650300003</v>
-      </c>
-      <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>9776000</v>
-      </c>
-      <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" s="1" t="n">
-        <v>1229</v>
-      </c>
-      <c r="B1231" t="n">
-        <v>9775000</v>
-      </c>
-      <c r="C1231" t="n">
-        <v>9771000</v>
-      </c>
-      <c r="D1231" t="n">
-        <v>9783000</v>
-      </c>
-      <c r="E1231" t="n">
-        <v>9771000</v>
-      </c>
-      <c r="F1231" t="n">
-        <v>3.74631128</v>
-      </c>
-      <c r="G1231" t="n">
-        <v>-483.5526763100003</v>
-      </c>
-      <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>9775000</v>
-      </c>
-      <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" s="1" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B1232" t="n">
-        <v>9771000</v>
-      </c>
-      <c r="C1232" t="n">
-        <v>9767000</v>
-      </c>
-      <c r="D1232" t="n">
-        <v>9775000</v>
-      </c>
-      <c r="E1232" t="n">
-        <v>9767000</v>
-      </c>
-      <c r="F1232" t="n">
-        <v>5.7809</v>
-      </c>
-      <c r="G1232" t="n">
-        <v>-489.3335763100002</v>
-      </c>
-      <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>9771000</v>
-      </c>
-      <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" s="1" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B1233" t="n">
-        <v>9767000</v>
-      </c>
-      <c r="C1233" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="D1233" t="n">
-        <v>9769000</v>
-      </c>
-      <c r="E1233" t="n">
-        <v>9747000</v>
-      </c>
-      <c r="F1233" t="n">
-        <v>12.16342066</v>
-      </c>
-      <c r="G1233" t="n">
-        <v>-501.4969969700002</v>
-      </c>
-      <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>9767000</v>
-      </c>
-      <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" s="1" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B1234" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="C1234" t="n">
-        <v>9754000</v>
-      </c>
-      <c r="D1234" t="n">
-        <v>9761000</v>
-      </c>
-      <c r="E1234" t="n">
-        <v>9747000</v>
-      </c>
-      <c r="F1234" t="n">
-        <v>6.96477575</v>
-      </c>
-      <c r="G1234" t="n">
-        <v>-508.4617727200002</v>
-      </c>
-      <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" s="1" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B1235" t="n">
-        <v>9755000</v>
-      </c>
-      <c r="C1235" t="n">
-        <v>9752000</v>
-      </c>
-      <c r="D1235" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>9749000</v>
-      </c>
-      <c r="F1235" t="n">
-        <v>11.5433</v>
-      </c>
-      <c r="G1235" t="n">
-        <v>-520.0050727200003</v>
-      </c>
-      <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>9754000</v>
-      </c>
-      <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="B1236" t="n">
-        <v>9751000</v>
-      </c>
-      <c r="C1236" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="D1236" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="E1236" t="n">
-        <v>9749000</v>
-      </c>
-      <c r="F1236" t="n">
-        <v>6.3737</v>
-      </c>
-      <c r="G1236" t="n">
-        <v>-513.6313727200003</v>
-      </c>
-      <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>9752000</v>
-      </c>
-      <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" s="1" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B1237" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="C1237" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="D1237" t="n">
-        <v>9769000</v>
-      </c>
-      <c r="E1237" t="n">
-        <v>9751000</v>
-      </c>
-      <c r="F1237" t="n">
-        <v>25.16362425</v>
-      </c>
-      <c r="G1237" t="n">
-        <v>-513.6313727200003</v>
-      </c>
-      <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>9760000</v>
-      </c>
-      <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41293,11 +41245,9 @@
         <v>-506.2399216000003</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>9760000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41332,11 +41282,9 @@
         <v>-499.8219216000003</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>9773000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41371,11 +41319,9 @@
         <v>-492.7320631600003</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>9775000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41410,11 +41356,9 @@
         <v>-487.0821064300003</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>9778000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41449,11 +41393,9 @@
         <v>-482.8152224900003</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>9801000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41488,11 +41430,9 @@
         <v>-476.6701902800003</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>9816000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41527,11 +41467,9 @@
         <v>-464.2869608500002</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>9826000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41566,11 +41504,9 @@
         <v>-469.3213338900002</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>9835000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41605,11 +41541,9 @@
         <v>-464.7345410900002</v>
       </c>
       <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>9831000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41644,11 +41578,9 @@
         <v>-471.5882191300002</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>9842000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41683,11 +41615,9 @@
         <v>-469.9931079200002</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>9834000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41722,11 +41652,9 @@
         <v>-464.7580819600002</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>9842000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -41761,11 +41689,9 @@
         <v>-458.3683536200002</v>
       </c>
       <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>9852000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42762,9 +42688,11 @@
         <v>-500.1077087800004</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>9782000</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -45507,6 +45435,6 @@
       <c r="M1347" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BTC.xlsx
+++ b/BackTest/2020-01-20 BackTest BTC.xlsx
@@ -748,7 +748,7 @@
         <v>-107.89231377</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-102.50070486</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-104.98490486</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-104.08042181</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-102.36662181</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-95.41072549999996</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-81.90988414999995</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-76.88764570999996</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-82.26377444999996</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-81.35293513999996</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-83.34813129999996</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-81.82165315999997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78.49515315999997</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-77.83185315999997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-77.14376676999997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-82.85838037999997</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-103.75517643</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-114.26117643</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-117.30267643</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-122.03937643</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-119.31610114</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-125.74350114</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-123.85040114</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-125.54350114</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-129.04270114</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-125.79165337</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-114.91265337</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-111.52325337</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-116.29975337</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-117.86315337</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-120.74916786</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-104.42226737</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-101.06046737</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-108.55836737</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-108.18816737</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-100.92936737</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-96.02116736999997</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-97.39556736999997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-96.46127079999997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-97.02257966999997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-97.62977966999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-104.04267967</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-83.47317966999996</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-84.56657966999997</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-81.47107966999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-89.52367966999996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-90.13357966999996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-86.17407966999995</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-88.58927966999995</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-74.46787697999996</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-72.03246798999996</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-73.33476798999996</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-66.41626798999995</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-66.37246798999995</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64.52295630999994</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-61.20146798999994</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-61.75646798999994</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-62.05936798999994</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-62.27256798999994</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-59.99418979999994</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-61.02617528999994</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-62.30447528999994</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-61.82337528999994</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64.57897528999995</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-60.01050552999995</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-59.17900552999995</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-58.94780552999995</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-59.02980552999995</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-59.74970552999995</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-58.12910552999995</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-58.49100552999995</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-58.56473403999994</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-60.33173719999994</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-60.60053719999994</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58.82533719999994</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-58.72743719999994</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-59.04383719999994</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-55.30053719999994</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-54.96103719999994</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-55.74303719999995</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-57.52923719999995</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-58.04763719999995</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-55.04123719999995</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-53.89423719999995</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-58.02073719999995</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-59.42953719999995</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-58.42093719999995</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-49.22823719999995</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-49.28423719999994</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-49.66953719999994</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-49.25213719999994</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-48.66033719999994</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-47.34673719999994</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-48.37503719999994</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-47.90443719999995</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-47.76983719999995</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-43.73323719999995</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-44.09243719999995</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-44.15123719999995</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-44.24893719999995</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-44.47383719999995</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-44.39563719999995</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-44.60963719999994</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-44.24104017999994</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-44.59544017999994</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-45.47774017999994</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-43.53954017999994</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-43.61924017999993</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-43.67424017999993</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-43.33874017999993</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-43.16274017999993</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-41.27883719999993</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-40.21913719999993</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-41.60493719999993</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-37.69503719999993</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-37.86273719999993</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-38.23833719999993</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-38.45055085999993</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-38.39145085999993</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-38.28675085999993</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-35.63455085999993</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-39.71145085999993</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-40.24675085999993</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-40.29205085999993</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-39.83095085999992</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-39.88585085999993</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-37.51025085999993</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-37.44705085999993</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-38.14985085999993</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-36.49425085999993</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-36.51215085999993</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-36.47015085999993</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-36.51865085999992</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-36.48885085999992</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-36.99715085999992</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-36.98405085999992</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-36.99565085999992</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-38.68285085999992</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-38.05684748999992</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-37.69664748999992</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-37.71084748999992</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-37.69224747999992</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-38.32834401999992</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-38.50564401999993</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-39.00494401999993</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-39.03814401999993</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-39.08134401999992</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-39.19344401999992</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-39.14454401999992</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-39.42644401999992</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-38.81754401999992</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-39.18430192999992</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-35.94980192999992</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-37.71064246999993</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-37.99944246999993</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-43.88003915999992</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-44.83413915999992</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-45.51943915999992</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-44.22463915999992</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-44.44233915999992</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-44.93283915999992</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-41.96573915999993</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-42.09373915999993</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-42.11533915999993</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-42.43940827999993</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-42.66810827999993</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-42.64290827999994</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-42.56070827999994</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-42.48530827999993</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-41.42833119999993</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-41.17353119999993</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-42.08513119999993</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-41.28763119999993</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-42.34583119999993</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-41.96913119999993</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-42.77803119999993</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-42.58433119999993</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-42.23663119999993</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-41.88006834999992</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-41.90942339999992</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-42.84952339999992</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-43.18682339999992</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-42.90692339999993</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-42.92952339999992</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-42.20088624999993</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-42.15298624999993</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-42.32028624999992</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-39.41014571999992</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-38.93744571999992</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-37.89694567999992</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-40.70964567999992</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-40.52974567999993</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-39.95354564999992</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-42.61574564999992</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-42.40334564999992</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-42.25184564999992</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-43.88584564999992</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-43.41284564999992</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-44.04284564999993</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-43.89564564999993</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-41.25234564999993</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-41.95354564999993</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-41.19144564999993</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-41.13994564999994</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-41.16294564999994</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-41.20674564999994</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-40.35024564999994</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-39.17034561999994</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-39.46444561999994</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-37.46394564999994</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-38.18984564999995</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-36.15454564999995</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-36.51954567999994</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-37.13354567999994</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-36.67764567999994</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-36.68364567999994</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-36.19334567999994</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-38.48104567999994</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-37.35424567999994</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-36.33674567999994</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-36.74524567999994</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-37.62093594999994</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-34.72283594999994</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-34.97033594999994</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-35.49043594999994</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-35.41723594999994</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-35.52143594999994</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-35.57183594999994</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-35.77623887999994</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-35.63003887999994</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-38.46833887999994</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-41.49921938999994</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-41.41691938999994</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-41.50531938999994</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-40.70111938999994</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-39.19301938999994</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-40.46258620999994</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-40.77268620999994</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-42.36418620999994</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-46.50618621999994</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-48.78938621999994</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-49.03098621999994</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-49.91318621999994</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-48.71348719999994</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-47.57598621999994</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-51.47675269999994</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-50.47705269999994</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-44.06351917999994</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-43.65521917999995</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-43.30589161999995</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-43.51509161999995</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-40.25428042999995</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-40.63148042999995</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-39.41678042999995</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-46.90737562999995</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-48.02084533999996</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-47.33177367999996</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-46.46467622999995</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-47.42757142999995</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-40.03207515999995</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-46.69245823999995</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-45.62815823999995</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-49.03275823999995</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-50.88095823999995</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-52.94199306999995</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-54.20485823999994</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-48.52112340999994</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-49.69262341999995</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-52.25572341999995</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-53.43782341999994</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-61.74781401999994</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-60.91590844999995</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-61.63514391999995</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-63.58685157999994</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-60.03145157999995</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-61.22695157999995</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-59.50345157999995</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-58.37205157999995</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-58.16505157999995</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-63.10275157999995</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-65.41165157999994</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-75.50525157999994</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-76.28235157999994</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-69.09705157999994</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-73.84945157999994</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-69.83905157999993</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-64.16236947999994</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-63.69706947999994</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-62.72766947999994</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-64.35566531999994</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-64.00527076999994</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-64.76047076999994</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-64.58207076999994</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-61.14347076999994</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-60.73477076999994</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-53.48569032999994</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-37.67379032999994</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-30.03749032999994</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-2.949067819999939</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-12.03434346999994</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-5.408321499999939</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-7.004721499999939</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-11.83232149999994</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-14.57342149999994</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-16.51732149999994</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-14.21541066999994</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-15.00033036999994</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-16.33617962999994</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-13.93627962999994</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-13.02454858999994</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-12.30514858999994</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-9.236248589999935</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-11.89444858999994</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-17.18451221999993</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-20.20591221999993</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-21.35951221999994</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-20.41931221999993</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-22.85731221999993</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-22.39591221999993</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-18.28891221999993</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-24.42981222999993</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-20.57141222999993</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>8.602824130000066</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>95.15643733000007</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>115.2581373300001</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>89.57366605000007</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>77.27018687000007</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>90.96578687000007</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>99.47698686000007</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>138.5387306000001</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>153.1266485200001</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>218.2809954100001</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>197.9522397000001</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>207.6430397000001</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>195.0444397000001</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>308.01208871</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>334.83987675</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>350.41127468</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>369.70867624</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>386.9356382400001</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>371.9596382400001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>358.0254558400001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>374.4372930300001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>386.6690675100001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>408.7532519500001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>417.8642871700001</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>428.4196953700001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>399.7229036800001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>403.6121776200001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>399.0465776200001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>396.7730776200001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>407.7626898800001</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>396.5021898800001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>415.3298353300001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>407.2403198500001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>412.3277474800001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>405.3295475200001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>393.1350208300001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>373.6011994300001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>358.0832816100001</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>343.9364816100001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>331.9053816100001</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>348.1145816100001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>339.4936816100001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>349.2704816100001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>353.1612825800001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>362.1581825800001</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>370.5569611800001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>365.2886611800001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>361.1983612200001</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>364.2896612200001</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>363.2408612200001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>367.9933612200001</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>371.15606122</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>365.40266122</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>370.9010550100001</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>380.21155501</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>383.95174093</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>394.33466089</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>399.85827666</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>411.60751086</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>399.78433991</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>403.88805247</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>408.88908024</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>425.94181245</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>413.90328285</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>420.09514693</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>416.90609744</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>408.28729746</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>412.96589742</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>404.05339738</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>398.98631835</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>402.35291835</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>396.36911835</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>391.97756</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>391.97756</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>388.03686</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>385.06496</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>358.86833777</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>372.97529847</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>368.9849984700001</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>366.7641984700001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>374.0743984700001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>372.1666984400001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>379.2216984400001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>380.4110020700001</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>376.9487021100001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>378.56951724</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>377.87423246</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>372.04223246</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -41206,17 +41206,11 @@
         <v>-513.6313727200003</v>
       </c>
       <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>9760000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41249,11 +41243,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41286,11 +41276,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41323,11 +41309,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41360,11 +41342,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41397,11 +41375,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41434,11 +41408,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41471,11 +41441,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41508,11 +41474,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41545,11 +41507,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41582,11 +41540,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41619,11 +41573,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41656,11 +41606,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41693,11 +41639,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41730,11 +41672,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41767,11 +41705,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41804,11 +41738,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41841,11 +41771,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41878,11 +41804,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41915,11 +41837,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -41952,11 +41870,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -41989,11 +41903,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42026,11 +41936,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42063,11 +41969,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42100,11 +42002,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42137,11 +42035,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42174,11 +42068,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42211,11 +42101,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42248,11 +42134,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42285,11 +42167,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42322,11 +42200,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42359,11 +42233,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42396,11 +42266,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42433,11 +42299,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42470,11 +42332,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42507,11 +42365,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42544,11 +42398,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42581,11 +42431,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42618,11 +42464,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -42655,11 +42497,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -42688,17 +42526,11 @@
         <v>-500.1077087800004</v>
       </c>
       <c r="H1277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>9782000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -42727,17 +42559,11 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>9783000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -42766,17 +42592,11 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>9790000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -42813,7 +42633,7 @@
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1280" t="n">
@@ -43780,11 +43600,9 @@
         <v>-486.0131296100002</v>
       </c>
       <c r="H1305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1305" t="n">
-        <v>9809000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43819,11 +43637,9 @@
         <v>-494.1404986400003</v>
       </c>
       <c r="H1306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1306" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43858,11 +43674,9 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1307" t="n">
-        <v>9805000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -43897,11 +43711,9 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1308" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -43936,11 +43748,9 @@
         <v>-485.1717592900003</v>
       </c>
       <c r="H1309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1309" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -43975,11 +43785,9 @@
         <v>-485.8570651400003</v>
       </c>
       <c r="H1310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1310" t="n">
-        <v>9814000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -44014,11 +43822,9 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1311" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -44053,11 +43859,9 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1312" t="n">
-        <v>9809000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44092,11 +43896,9 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1313" t="n">
-        <v>9809000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44131,11 +43933,9 @@
         <v>-485.1809985700003</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>9809000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44170,11 +43970,9 @@
         <v>-487.0120985700003</v>
       </c>
       <c r="H1315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1315" t="n">
-        <v>9815000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44209,11 +44007,9 @@
         <v>-482.3232461900003</v>
       </c>
       <c r="H1316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1316" t="n">
-        <v>9806000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44248,11 +44044,9 @@
         <v>-473.0065230200003</v>
       </c>
       <c r="H1317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1317" t="n">
-        <v>9814000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44287,11 +44081,9 @@
         <v>-472.5166183200003</v>
       </c>
       <c r="H1318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1318" t="n">
-        <v>9815000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44326,11 +44118,9 @@
         <v>-475.4504792700003</v>
       </c>
       <c r="H1319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1319" t="n">
-        <v>9820000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44365,11 +44155,9 @@
         <v>-481.4545719100003</v>
       </c>
       <c r="H1320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1320" t="n">
-        <v>9809000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44404,11 +44192,9 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>9804000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -44443,11 +44229,9 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>9798000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
@@ -44482,11 +44266,9 @@
         <v>-490.8394719100003</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>9798000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
@@ -44521,11 +44303,9 @@
         <v>-488.6077719100003</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>9799000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -44560,11 +44340,9 @@
         <v>-488.0164969500003</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>9800000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44599,11 +44377,9 @@
         <v>-491.5624969500003</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
@@ -44638,11 +44414,9 @@
         <v>-490.8774171400003</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>9799000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -44677,11 +44451,9 @@
         <v>-489.9999262600003</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>9801000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -44716,11 +44488,9 @@
         <v>-492.5309344600003</v>
       </c>
       <c r="H1329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1329" t="n">
-        <v>9802000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
@@ -44755,11 +44525,9 @@
         <v>-492.1902344600002</v>
       </c>
       <c r="H1330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1330" t="n">
-        <v>9801000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
@@ -44794,11 +44562,9 @@
         <v>-491.4305344600002</v>
       </c>
       <c r="H1331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1331" t="n">
-        <v>9803000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
@@ -44833,11 +44599,9 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1332" t="n">
-        <v>9808000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
@@ -44872,11 +44636,9 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1333" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
@@ -44911,11 +44673,9 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1334" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
@@ -44950,11 +44710,9 @@
         <v>-490.8740344600002</v>
       </c>
       <c r="H1335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1335" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
@@ -44989,11 +44747,9 @@
         <v>-488.4648295500002</v>
       </c>
       <c r="H1336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1336" t="n">
-        <v>9818000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
@@ -45028,11 +44784,9 @@
         <v>-487.4849250600002</v>
       </c>
       <c r="H1337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1337" t="n">
-        <v>9820000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
@@ -45067,11 +44821,9 @@
         <v>-488.4597250600002</v>
       </c>
       <c r="H1338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1338" t="n">
-        <v>9823000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
@@ -45106,11 +44858,9 @@
         <v>-486.3024250600002</v>
       </c>
       <c r="H1339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1339" t="n">
-        <v>9811000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
@@ -45145,11 +44895,9 @@
         <v>-486.6520251100002</v>
       </c>
       <c r="H1340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1340" t="n">
-        <v>9821000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
@@ -45184,11 +44932,9 @@
         <v>-486.4075268500002</v>
       </c>
       <c r="H1341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1341" t="n">
-        <v>9810000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
@@ -45223,11 +44969,9 @@
         <v>-487.8404064000002</v>
       </c>
       <c r="H1342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1342" t="n">
-        <v>9820000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
@@ -45262,11 +45006,9 @@
         <v>-487.3954064000002</v>
       </c>
       <c r="H1343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1343" t="n">
-        <v>9818000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
@@ -45301,11 +45043,9 @@
         <v>-485.0918018200002</v>
       </c>
       <c r="H1344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1344" t="n">
-        <v>9820000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
@@ -45340,11 +45080,9 @@
         <v>-486.8089841400002</v>
       </c>
       <c r="H1345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1345" t="n">
-        <v>9821000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
@@ -45379,11 +45117,9 @@
         <v>-486.1941841400002</v>
       </c>
       <c r="H1346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1346" t="n">
-        <v>9816000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
@@ -45418,11 +45154,9 @@
         <v>-488.9447841400002</v>
       </c>
       <c r="H1347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1347" t="n">
-        <v>9825000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
